--- a/sports.xlsx
+++ b/sports.xlsx
@@ -2,27 +2,39 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,11 +58,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,6 +430,165 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <cols>
+    <col width="34" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="42.109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="22.109375" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="n">
+        <v>44326</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>日時</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://news.yahoo.co.jp/pickup/6393286</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>44330.55246527777</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://news.yahoo.co.jp/pickup/6393282</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>44330.55246527777</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://news.yahoo.co.jp/pickup/6393267</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>44330.55246527777</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hg</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://news.yahoo.co.jp/pickup/6393265</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>44330.55246527777</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://news.yahoo.co.jp/pickup/6393258</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>44330.55246527777</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>tr</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://news.yahoo.co.jp/pickup/6393240</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>44330.55246527777</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4r</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://news.yahoo.co.jp/pickup/6393235</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>44330.55246527777</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>tr</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://news.yahoo.co.jp/pickup/6393219</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>44330.55246527777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -422,114 +598,125 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>タイトル</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
+      <c r="A1" s="5" t="n">
+        <v>44335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>菊池雄星 最多11Kも2勝目ならず</t>
+          <t>大谷翔平14号ソロ トップ独走</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://news.yahoo.co.jp/pickup/6393112</t>
+          <t>https://news.yahoo.co.jp/pickup/6393723</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>大谷 10奪三振好投後に外野守備</t>
+          <t>大谷の13号3ラン 全米の驚き</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://news.yahoo.co.jp/pickup/6393099</t>
+          <t>https://news.yahoo.co.jp/pickup/6393700</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>屈辱DeNA 巨人に勝てない理由</t>
+          <t>OA枠 吉田、遠藤ら20日発表へ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://news.yahoo.co.jp/pickup/6393095</t>
+          <t>https://news.yahoo.co.jp/pickup/6393695</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ナダル 東京五輪出場は未定</t>
+          <t>15年に追放 ベンゼマ代表復帰か</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://news.yahoo.co.jp/pickup/6393092</t>
+          <t>https://news.yahoo.co.jp/pickup/6393694</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>筒香「高くついた」地元紙酷評</t>
+          <t>G野上 わずか4球で緊急降板</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://news.yahoo.co.jp/pickup/6393082</t>
+          <t>https://news.yahoo.co.jp/pickup/6393681</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>筒香 レイズから事実上の戦力外</t>
+          <t>ダル4勝目 今季初安打に大喜び</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://news.yahoo.co.jp/pickup/6393067</t>
+          <t>https://news.yahoo.co.jp/pickup/6393656</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>日本選手の接種 6月開始で調整</t>
+          <t>テニス選手 ラケット破壊する訳</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://news.yahoo.co.jp/pickup/6393081</t>
+          <t>https://news.yahoo.co.jp/pickup/6393637</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>イニエスタ 大幅減俸で契約の訳</t>
+          <t>パパ力士「おかえり」が活力に</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://news.yahoo.co.jp/pickup/6393071</t>
+          <t>https://news.yahoo.co.jp/pickup/6393629</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>